--- a/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/WOW/Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C311413E-0800-B34D-953B-28D2056FF54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B257CE-82E6-E24D-9268-BE2FD83A9734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9080" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1180" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -598,8 +598,8 @@
         <v>27</v>
       </c>
       <c r="C4" t="str">
-        <f>_xlfn.CONCAT("cn.etetet.wow.",B4,"ConfigCategory")</f>
-        <v>cn.etetet.wow.UnitConfigCategory</v>
+        <f>_xlfn.CONCAT("ET.",B4,"ConfigCategory")</f>
+        <v>ET.UnitConfigCategory</v>
       </c>
       <c r="D4" t="str">
         <f>_xlfn.CONCAT(B4,"Config")</f>
@@ -622,8 +622,8 @@
         <v>28</v>
       </c>
       <c r="C5" t="str">
-        <f>_xlfn.CONCAT("cn.etetet.wow.",B5,"ConfigCategory")</f>
-        <v>cn.etetet.wow.TextConfigCategory</v>
+        <f t="shared" ref="C5:C8" si="1">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
+        <v>ET.TextConfigCategory</v>
       </c>
       <c r="D5" t="str">
         <f>_xlfn.CONCAT(B5,"Config")</f>
@@ -646,8 +646,8 @@
         <v>29</v>
       </c>
       <c r="C6" t="str">
-        <f>_xlfn.CONCAT("cn.etetet.wow.",B6,"ConfigCategory")</f>
-        <v>cn.etetet.wow.NumericTypeConfigCategory</v>
+        <f t="shared" si="1"/>
+        <v>ET.NumericTypeConfigCategory</v>
       </c>
       <c r="D6" t="str">
         <f>_xlfn.CONCAT(B6,"Config")</f>
@@ -670,8 +670,8 @@
         <v>30</v>
       </c>
       <c r="C7" t="str">
-        <f>_xlfn.CONCAT("cn.etetet.wow.",B7,"ConfigCategory")</f>
-        <v>cn.etetet.wow.MapConfigCategory</v>
+        <f t="shared" si="1"/>
+        <v>ET.MapConfigCategory</v>
       </c>
       <c r="D7" t="str">
         <f>_xlfn.CONCAT(B7,"Config")</f>
@@ -694,8 +694,8 @@
         <v>31</v>
       </c>
       <c r="C8" t="str">
-        <f>_xlfn.CONCAT("cn.etetet.wow.",B8,"ConfigCategory")</f>
-        <v>cn.etetet.wow.MapTransferRuleConfigCategory</v>
+        <f t="shared" si="1"/>
+        <v>ET.MapTransferRuleConfigCategory</v>
       </c>
       <c r="D8" t="str">
         <f>_xlfn.CONCAT(B8,"Config")</f>

--- a/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B257CE-82E6-E24D-9268-BE2FD83A9734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B11A8A5-A887-9E4C-A68E-87A34CD5DC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1180" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>MapTransferRule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapUnit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -622,7 +626,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C8" si="1">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
+        <f t="shared" ref="C5:C9" si="1">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
         <v>ET.TextConfigCategory</v>
       </c>
       <c r="D5" t="str">
@@ -711,6 +715,30 @@
       <c r="L8" t="str">
         <f>_xlfn.CONCAT(B8,"ConfigCategory")</f>
         <v>MapTransferRuleConfigCategory</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>ET.MapUnitConfigCategory</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT(B9,"Config")</f>
+        <v>MapUnitConfig</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("",B9,".xlsx")</f>
+        <v>MapUnit.xlsx</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT(B9,"ConfigCategory")</f>
+        <v>MapUnitConfigCategory</v>
       </c>
     </row>
   </sheetData>

--- a/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B11A8A5-A887-9E4C-A68E-87A34CD5DC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC00BB1-3ECE-0343-8649-76F416A034A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1180" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -135,6 +135,13 @@
   <si>
     <t>MapUnit</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestObjective</t>
   </si>
 </sst>
 </file>
@@ -490,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:L9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -606,18 +613,18 @@
         <v>ET.UnitConfigCategory</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.CONCAT(B4,"Config")</f>
+        <f t="shared" ref="D4:D10" si="0">_xlfn.CONCAT(B4,"Config")</f>
         <v>UnitConfig</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F7" si="0">_xlfn.CONCAT("",B4,".xlsx")</f>
+        <f t="shared" ref="F4:F7" si="1">_xlfn.CONCAT("",B4,".xlsx")</f>
         <v>Unit.xlsx</v>
       </c>
       <c r="L4" t="str">
-        <f>_xlfn.CONCAT(B4,"ConfigCategory")</f>
+        <f t="shared" ref="L4:L10" si="2">_xlfn.CONCAT(B4,"ConfigCategory")</f>
         <v>UnitConfigCategory</v>
       </c>
     </row>
@@ -626,22 +633,22 @@
         <v>28</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C9" si="1">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
+        <f t="shared" ref="C5:C10" si="3">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
         <v>ET.TextConfigCategory</v>
       </c>
       <c r="D5" t="str">
-        <f>_xlfn.CONCAT(B5,"Config")</f>
+        <f t="shared" si="0"/>
         <v>TextConfig</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Text.xlsx</v>
       </c>
       <c r="L5" t="str">
-        <f>_xlfn.CONCAT(B5,"ConfigCategory")</f>
+        <f t="shared" si="2"/>
         <v>TextConfigCategory</v>
       </c>
     </row>
@@ -650,22 +657,22 @@
         <v>29</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ET.NumericTypeConfigCategory</v>
       </c>
       <c r="D6" t="str">
-        <f>_xlfn.CONCAT(B6,"Config")</f>
+        <f t="shared" si="0"/>
         <v>NumericTypeConfig</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NumericType.xlsx</v>
       </c>
       <c r="L6" t="str">
-        <f>_xlfn.CONCAT(B6,"ConfigCategory")</f>
+        <f t="shared" si="2"/>
         <v>NumericTypeConfigCategory</v>
       </c>
     </row>
@@ -674,22 +681,22 @@
         <v>30</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ET.MapConfigCategory</v>
       </c>
       <c r="D7" t="str">
-        <f>_xlfn.CONCAT(B7,"Config")</f>
+        <f t="shared" si="0"/>
         <v>MapConfig</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Map.xlsx</v>
       </c>
       <c r="L7" t="str">
-        <f>_xlfn.CONCAT(B7,"ConfigCategory")</f>
+        <f t="shared" si="2"/>
         <v>MapConfigCategory</v>
       </c>
     </row>
@@ -698,11 +705,11 @@
         <v>31</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ET.MapTransferRuleConfigCategory</v>
       </c>
       <c r="D8" t="str">
-        <f>_xlfn.CONCAT(B8,"Config")</f>
+        <f t="shared" si="0"/>
         <v>MapTransferRuleConfig</v>
       </c>
       <c r="E8" t="b">
@@ -713,7 +720,7 @@
         <v>MapTransferRule.xlsx</v>
       </c>
       <c r="L8" t="str">
-        <f>_xlfn.CONCAT(B8,"ConfigCategory")</f>
+        <f t="shared" si="2"/>
         <v>MapTransferRuleConfigCategory</v>
       </c>
     </row>
@@ -722,11 +729,11 @@
         <v>32</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ET.MapUnitConfigCategory</v>
       </c>
       <c r="D9" t="str">
-        <f>_xlfn.CONCAT(B9,"Config")</f>
+        <f t="shared" si="0"/>
         <v>MapUnitConfig</v>
       </c>
       <c r="E9" t="b">
@@ -737,9 +744,114 @@
         <v>MapUnit.xlsx</v>
       </c>
       <c r="L9" t="str">
-        <f>_xlfn.CONCAT(B9,"ConfigCategory")</f>
+        <f t="shared" si="2"/>
         <v>MapUnitConfigCategory</v>
       </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="3"/>
+        <v>ET.QuestConfigCategory</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>QuestConfig</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("",B10,".xlsx")</f>
+        <v>Quest.xlsx</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>QuestConfigCategory</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" ref="C11:C30" si="4">_xlfn.CONCAT("ET.",B11,"ConfigCategory")</f>
+        <v>ET.QuestObjectiveConfigCategory</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D30" si="5">_xlfn.CONCAT(B11,"Config")</f>
+        <v>QuestObjectiveConfig</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ref="F11:F30" si="6">_xlfn.CONCAT("",B11,".xlsx")</f>
+        <v>QuestObjective.xlsx</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L30" si="7">_xlfn.CONCAT(B11,"ConfigCategory")</f>
+        <v>QuestObjectiveConfigCategory</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC00BB1-3ECE-0343-8649-76F416A034A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290FB5D7-3734-DB45-89F4-B13329F8AFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -122,26 +122,59 @@
     <t>Text</t>
   </si>
   <si>
+    <t>MapTransferRule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestObjective</t>
+  </si>
+  <si>
     <t>NumericType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Unit.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Text.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/NumericType.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapTransferRule.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapUnit.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Quest.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/QuestObjective.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Map</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MapTransferRule</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuestObjective</t>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Map.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -497,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -613,18 +646,17 @@
         <v>ET.UnitConfigCategory</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D10" si="0">_xlfn.CONCAT(B4,"Config")</f>
+        <f t="shared" ref="D4:D9" si="0">_xlfn.CONCAT(B4,"Config")</f>
         <v>UnitConfig</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" ref="F4:F7" si="1">_xlfn.CONCAT("",B4,".xlsx")</f>
-        <v>Unit.xlsx</v>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L10" si="2">_xlfn.CONCAT(B4,"ConfigCategory")</f>
+        <f t="shared" ref="L4:L9" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
         <v>UnitConfigCategory</v>
       </c>
     </row>
@@ -633,7 +665,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C10" si="3">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
+        <f t="shared" ref="C5:C9" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
         <v>ET.TextConfigCategory</v>
       </c>
       <c r="D5" t="str">
@@ -643,21 +675,20 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>Text.xlsx</v>
-      </c>
-      <c r="L5" t="str">
+        <v>TextConfigCategory</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="str">
         <f t="shared" si="2"/>
-        <v>TextConfigCategory</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="3"/>
         <v>ET.NumericTypeConfigCategory</v>
       </c>
       <c r="D6" t="str">
@@ -667,133 +698,127 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>NumericType.xlsx</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="2"/>
         <v>NumericTypeConfigCategory</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="3"/>
-        <v>ET.MapConfigCategory</v>
+        <f t="shared" si="2"/>
+        <v>ET.MapTransferRuleConfigCategory</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>MapConfig</v>
+        <v>MapTransferRuleConfig</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>Map.xlsx</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="2"/>
-        <v>MapConfigCategory</v>
+        <v>MapTransferRuleConfigCategory</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="3"/>
-        <v>ET.MapTransferRuleConfigCategory</v>
+        <f t="shared" si="2"/>
+        <v>ET.MapUnitConfigCategory</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>MapTransferRuleConfig</v>
+        <v>MapUnitConfig</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("",B8,".xlsx")</f>
-        <v>MapTransferRule.xlsx</v>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="2"/>
-        <v>MapTransferRuleConfigCategory</v>
+        <f t="shared" si="1"/>
+        <v>MapUnitConfigCategory</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="3"/>
-        <v>ET.MapUnitConfigCategory</v>
+        <f t="shared" si="2"/>
+        <v>ET.QuestConfigCategory</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>MapUnitConfig</v>
+        <v>QuestConfig</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("",B9,".xlsx")</f>
-        <v>MapUnit.xlsx</v>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="2"/>
-        <v>MapUnitConfigCategory</v>
+        <f t="shared" si="1"/>
+        <v>QuestConfigCategory</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="3"/>
-        <v>ET.QuestConfigCategory</v>
+        <f t="shared" ref="C10" si="3">_xlfn.CONCAT("ET.",B10,"ConfigCategory")</f>
+        <v>ET.QuestObjectiveConfigCategory</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>QuestConfig</v>
+        <f t="shared" ref="D10:D11" si="4">_xlfn.CONCAT(B10,"Config")</f>
+        <v>QuestObjectiveConfig</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("",B10,".xlsx")</f>
-        <v>Quest.xlsx</v>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="2"/>
-        <v>QuestConfigCategory</v>
+        <f t="shared" ref="L10:L11" si="5">_xlfn.CONCAT(B10,"ConfigCategory")</f>
+        <v>QuestObjectiveConfigCategory</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:C30" si="4">_xlfn.CONCAT("ET.",B11,"ConfigCategory")</f>
-        <v>ET.QuestObjectiveConfigCategory</v>
+        <f>_xlfn.CONCAT("ET.",B11,"ConfigCategory")</f>
+        <v>ET.MapConfigCategory</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D30" si="5">_xlfn.CONCAT(B11,"Config")</f>
-        <v>QuestObjectiveConfig</v>
+        <f t="shared" si="4"/>
+        <v>MapConfig</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" ref="F11:F30" si="6">_xlfn.CONCAT("",B11,".xlsx")</f>
-        <v>QuestObjective.xlsx</v>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L30" si="7">_xlfn.CONCAT(B11,"ConfigCategory")</f>
-        <v>QuestObjectiveConfigCategory</v>
+        <f t="shared" si="5"/>
+        <v>MapConfigCategory</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -849,9 +874,6 @@
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290FB5D7-3734-DB45-89F4-B13329F8AFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD62D5D-C764-FE43-87E0-38D2BF17E4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -130,13 +130,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Quest</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuestObjective</t>
-  </si>
-  <si>
     <t>NumericType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -158,14 +151,6 @@
   </si>
   <si>
     <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapUnit.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Quest.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/QuestObjective.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -530,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -646,17 +631,17 @@
         <v>ET.UnitConfigCategory</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D9" si="0">_xlfn.CONCAT(B4,"Config")</f>
+        <f t="shared" ref="D4:D8" si="0">_xlfn.CONCAT(B4,"Config")</f>
         <v>UnitConfig</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L9" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
+        <f t="shared" ref="L4:L8" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
         <v>UnitConfigCategory</v>
       </c>
     </row>
@@ -665,7 +650,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C9" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
+        <f t="shared" ref="C5:C8" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
         <v>ET.TextConfigCategory</v>
       </c>
       <c r="D5" t="str">
@@ -676,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
@@ -685,7 +670,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="2"/>
@@ -699,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
@@ -722,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
@@ -745,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
@@ -754,72 +739,32 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="2"/>
-        <v>ET.QuestConfigCategory</v>
+        <f>_xlfn.CONCAT("ET.",B9,"ConfigCategory")</f>
+        <v>ET.MapConfigCategory</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>QuestConfig</v>
+        <f t="shared" ref="D9" si="3">_xlfn.CONCAT(B9,"Config")</f>
+        <v>MapConfig</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="1"/>
-        <v>QuestConfigCategory</v>
+        <f t="shared" ref="L9" si="4">_xlfn.CONCAT(B9,"ConfigCategory")</f>
+        <v>MapConfigCategory</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" ref="C10" si="3">_xlfn.CONCAT("ET.",B10,"ConfigCategory")</f>
-        <v>ET.QuestObjectiveConfigCategory</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" ref="D10:D11" si="4">_xlfn.CONCAT(B10,"Config")</f>
-        <v>QuestObjectiveConfig</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10:L11" si="5">_xlfn.CONCAT(B10,"ConfigCategory")</f>
-        <v>QuestObjectiveConfigCategory</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("ET.",B11,"ConfigCategory")</f>
-        <v>ET.MapConfigCategory</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="4"/>
-        <v>MapConfig</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="5"/>
-        <v>MapConfigCategory</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="2"/>
@@ -868,12 +813,6 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD62D5D-C764-FE43-87E0-38D2BF17E4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F025B08-5CED-CD44-A80B-B0035BBB4071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,46 +119,47 @@
     <t>Unit</t>
   </si>
   <si>
+    <t>MapTransferRule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Unit.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/NumericType.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapTransferRule.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapUnit.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Map.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Text</t>
-  </si>
-  <si>
-    <t>MapTransferRule</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumericType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Unit.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>../../../../cn.etetet.wow/Luban/Config/Datas/Text.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/NumericType.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapTransferRule.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapUnit.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Map.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -631,64 +632,64 @@
         <v>ET.UnitConfigCategory</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D8" si="0">_xlfn.CONCAT(B4,"Config")</f>
+        <f t="shared" ref="D4:D7" si="0">_xlfn.CONCAT(B4,"Config")</f>
         <v>UnitConfig</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L8" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
+        <f t="shared" ref="L4:L7" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
         <v>UnitConfigCategory</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" t="s">
-        <v>28</v>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C8" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
-        <v>ET.TextConfigCategory</v>
+        <f t="shared" ref="C5:C7" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
+        <v>ET.NumericTypeConfigCategory</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>TextConfig</v>
+        <v>NumericTypeConfig</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>TextConfigCategory</v>
+        <v>NumericTypeConfigCategory</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="2"/>
-        <v>ET.NumericTypeConfigCategory</v>
+        <v>ET.MapTransferRuleConfigCategory</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>NumericTypeConfig</v>
+        <v>MapTransferRuleConfig</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>NumericTypeConfigCategory</v>
+        <v>MapTransferRuleConfigCategory</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -697,34 +698,34 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="2"/>
-        <v>ET.MapTransferRuleConfigCategory</v>
+        <v>ET.MapUnitConfigCategory</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>MapTransferRuleConfig</v>
+        <v>MapUnitConfig</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>MapTransferRuleConfigCategory</v>
+        <v>MapUnitConfigCategory</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="2"/>
-        <v>ET.MapUnitConfigCategory</v>
+        <f>_xlfn.CONCAT("ET.",B8,"ConfigCategory")</f>
+        <v>ET.MapConfigCategory</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>MapUnitConfig</v>
+        <f t="shared" ref="D8:D9" si="3">_xlfn.CONCAT(B8,"Config")</f>
+        <v>MapConfig</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -733,8 +734,8 @@
         <v>36</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="1"/>
-        <v>MapUnitConfigCategory</v>
+        <f t="shared" ref="L8:L9" si="4">_xlfn.CONCAT(B8,"ConfigCategory")</f>
+        <v>MapConfigCategory</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -743,11 +744,11 @@
       </c>
       <c r="C9" t="str">
         <f>_xlfn.CONCAT("ET.",B9,"ConfigCategory")</f>
-        <v>ET.MapConfigCategory</v>
+        <v>ET.TextConfigCategory</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9" si="3">_xlfn.CONCAT(B9,"Config")</f>
-        <v>MapConfig</v>
+        <f t="shared" si="3"/>
+        <v>TextConfig</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -756,8 +757,8 @@
         <v>38</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" ref="L9" si="4">_xlfn.CONCAT(B9,"ConfigCategory")</f>
-        <v>MapConfigCategory</v>
+        <f t="shared" si="4"/>
+        <v>TextConfigCategory</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -810,9 +811,6 @@
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F025B08-5CED-CD44-A80B-B0035BBB4071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B329C15-4A2E-C34A-B550-5359D1698C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Text.xlsx</t>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Text.xlsx,../../../../cn.etetet.spell/Luban/Config/Datas/Text.xlsx,../../../../cn.etetet.quest/Luban/Config/Datas/Text.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +519,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -528,7 +528,7 @@
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="58.33203125" customWidth="1"/>
-    <col min="6" max="6" width="67.1640625" customWidth="1"/>
+    <col min="6" max="6" width="129.6640625" customWidth="1"/>
     <col min="7" max="10" width="18" customWidth="1"/>
     <col min="12" max="12" width="47.33203125" customWidth="1"/>
   </cols>

--- a/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B329C15-4A2E-C34A-B550-5359D1698C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DE15D0-6196-F84C-84CF-1736BFF93047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -119,55 +119,45 @@
     <t>Unit</t>
   </si>
   <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Unit.xlsx</t>
+  </si>
+  <si>
+    <t>NumericType</t>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/NumericType.xlsx</t>
+  </si>
+  <si>
     <t>MapTransferRule</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapTransferRule.xlsx</t>
   </si>
   <si>
     <t>MapUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumericType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Unit.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/NumericType.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapTransferRule.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapUnit.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>../../../../cn.etetet.wow/Luban/Config/Datas/Map.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Text.xlsx,../../../../cn.etetet.spell/Luban/Config/Datas/Text.xlsx,../../../../cn.etetet.quest/Luban/Config/Datas/Text.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.quest/Luban/Config/Datas/Text.xlsx,../../../../cn.etetet.wow/Luban/Config/Datas/Text.xlsx,../../../../cn.etetet.spell/Luban/Config/Datas/Text.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,13 +176,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -223,21 +206,21 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,7 +502,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -533,7 +516,7 @@
     <col min="12" max="12" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -600,7 +583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -623,198 +606,199 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="B4" t="s">
+    <row r="4">
+      <c r="B4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="0" t="str">
         <f>_xlfn.CONCAT("ET.",B4,"ConfigCategory")</f>
         <v>ET.UnitConfigCategory</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D7" si="0">_xlfn.CONCAT(B4,"Config")</f>
+      <c r="D4" s="0" t="str">
+        <f ref="D4:D7" t="shared" si="0">_xlfn.CONCAT(B4,"Config")</f>
         <v>UnitConfig</v>
       </c>
-      <c r="E4" t="b">
+      <c r="E4" s="0" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4:L7" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
+        <v>28</v>
+      </c>
+      <c r="L4" s="0" t="str">
+        <f ref="L4:L7" t="shared" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
         <v>UnitConfigCategory</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5">
       <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5:C7" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
+        <v>29</v>
+      </c>
+      <c r="C5" s="0" t="str">
+        <f ref="C5:C7" t="shared" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
         <v>ET.NumericTypeConfigCategory</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="0" t="str">
         <f t="shared" si="0"/>
         <v>NumericTypeConfig</v>
       </c>
-      <c r="E5" t="b">
+      <c r="E5" s="0" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="str">
+        <v>30</v>
+      </c>
+      <c r="L5" s="0" t="str">
         <f t="shared" si="1"/>
         <v>NumericTypeConfigCategory</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6">
       <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="str">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0" t="str">
         <f t="shared" si="2"/>
         <v>ET.MapTransferRuleConfigCategory</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="0" t="str">
         <f t="shared" si="0"/>
         <v>MapTransferRuleConfig</v>
       </c>
-      <c r="E6" t="b">
+      <c r="E6" s="0" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="str">
+        <v>32</v>
+      </c>
+      <c r="L6" s="0" t="str">
         <f t="shared" si="1"/>
         <v>MapTransferRuleConfigCategory</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7">
       <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="str">
+        <v>33</v>
+      </c>
+      <c r="C7" s="0" t="str">
         <f t="shared" si="2"/>
         <v>ET.MapUnitConfigCategory</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="0" t="str">
         <f t="shared" si="0"/>
         <v>MapUnitConfig</v>
       </c>
-      <c r="E7" t="b">
+      <c r="E7" s="0" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7" s="0" t="str">
         <f t="shared" si="1"/>
         <v>MapUnitConfigCategory</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8">
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="0" t="str">
         <f>_xlfn.CONCAT("ET.",B8,"ConfigCategory")</f>
         <v>ET.MapConfigCategory</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" ref="D8:D9" si="3">_xlfn.CONCAT(B8,"Config")</f>
+      <c r="D8" s="0" t="str">
+        <f ref="D8:D9" t="shared" si="3">_xlfn.CONCAT(B8,"Config")</f>
         <v>MapConfig</v>
       </c>
-      <c r="E8" t="b">
+      <c r="E8" s="0" t="b">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" ref="L8:L9" si="4">_xlfn.CONCAT(B8,"ConfigCategory")</f>
+      <c r="L8" s="0" t="str">
+        <f ref="L8:L9" t="shared" si="4">_xlfn.CONCAT(B8,"ConfigCategory")</f>
         <v>MapConfigCategory</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9">
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="0" t="str">
         <f>_xlfn.CONCAT("ET.",B9,"ConfigCategory")</f>
         <v>ET.TextConfigCategory</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="0" t="str">
         <f t="shared" si="3"/>
         <v>TextConfig</v>
       </c>
-      <c r="E9" t="b">
+      <c r="E9" s="0" t="b">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="0" t="str">
         <f t="shared" si="4"/>
         <v>TextConfigCategory</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26">
       <c r="B26" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DE15D0-6196-F84C-84CF-1736BFF93047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A8B35-7C0D-3E4E-A115-CBBFF795CCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -128,22 +128,10 @@
     <t>../../../../cn.etetet.wow/Luban/Config/Datas/NumericType.xlsx</t>
   </si>
   <si>
-    <t>MapTransferRule</t>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapTransferRule.xlsx</t>
-  </si>
-  <si>
     <t>MapUnit</t>
   </si>
   <si>
     <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapUnit.xlsx</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Map.xlsx</t>
   </si>
   <si>
     <t>Text</t>
@@ -499,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -615,7 +603,7 @@
         <v>ET.UnitConfigCategory</v>
       </c>
       <c r="D4" s="0" t="str">
-        <f ref="D4:D7" t="shared" si="0">_xlfn.CONCAT(B4,"Config")</f>
+        <f ref="D4:D6" t="shared" si="0">_xlfn.CONCAT(B4,"Config")</f>
         <v>UnitConfig</v>
       </c>
       <c r="E4" s="0" t="b">
@@ -625,7 +613,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="0" t="str">
-        <f ref="L4:L7" t="shared" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
+        <f ref="L4:L6" t="shared" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
         <v>UnitConfigCategory</v>
       </c>
     </row>
@@ -634,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="0" t="str">
-        <f ref="C5:C7" t="shared" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
+        <f ref="C5:C6" t="shared" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
         <v>ET.NumericTypeConfigCategory</v>
       </c>
       <c r="D5" s="0" t="str">
@@ -658,11 +646,11 @@
       </c>
       <c r="C6" s="0" t="str">
         <f t="shared" si="2"/>
-        <v>ET.MapTransferRuleConfigCategory</v>
+        <v>ET.MapUnitConfigCategory</v>
       </c>
       <c r="D6" s="0" t="str">
         <f t="shared" si="0"/>
-        <v>MapTransferRuleConfig</v>
+        <v>MapUnitConfig</v>
       </c>
       <c r="E6" s="0" t="b">
         <v>1</v>
@@ -672,7 +660,7 @@
       </c>
       <c r="L6" s="0" t="str">
         <f t="shared" si="1"/>
-        <v>MapTransferRuleConfigCategory</v>
+        <v>MapUnitConfigCategory</v>
       </c>
     </row>
     <row r="7">
@@ -680,12 +668,12 @@
         <v>33</v>
       </c>
       <c r="C7" s="0" t="str">
-        <f t="shared" si="2"/>
-        <v>ET.MapUnitConfigCategory</v>
+        <f>_xlfn.CONCAT("ET.",B7,"ConfigCategory")</f>
+        <v>ET.TextConfigCategory</v>
       </c>
       <c r="D7" s="0" t="str">
-        <f t="shared" si="0"/>
-        <v>MapUnitConfig</v>
+        <f>_xlfn.CONCAT(B7,"Config")</f>
+        <v>TextConfig</v>
       </c>
       <c r="E7" s="0" t="b">
         <v>1</v>
@@ -694,55 +682,15 @@
         <v>34</v>
       </c>
       <c r="L7" s="0" t="str">
-        <f t="shared" si="1"/>
-        <v>MapUnitConfigCategory</v>
+        <f>_xlfn.CONCAT(B7,"ConfigCategory")</f>
+        <v>TextConfigCategory</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="0" t="str">
-        <f>_xlfn.CONCAT("ET.",B8,"ConfigCategory")</f>
-        <v>ET.MapConfigCategory</v>
-      </c>
-      <c r="D8" s="0" t="str">
-        <f ref="D8:D9" t="shared" si="3">_xlfn.CONCAT(B8,"Config")</f>
-        <v>MapConfig</v>
-      </c>
-      <c r="E8" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="0" t="str">
-        <f ref="L8:L9" t="shared" si="4">_xlfn.CONCAT(B8,"ConfigCategory")</f>
-        <v>MapConfigCategory</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="0" t="str">
-        <f>_xlfn.CONCAT("ET.",B9,"ConfigCategory")</f>
-        <v>ET.TextConfigCategory</v>
-      </c>
-      <c r="D9" s="0" t="str">
-        <f t="shared" si="3"/>
-        <v>TextConfig</v>
-      </c>
-      <c r="E9" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="0" t="str">
-        <f t="shared" si="4"/>
-        <v>TextConfigCategory</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="B10" s="2"/>
@@ -788,12 +736,6 @@
     </row>
     <row r="24">
       <c r="B24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A8B35-7C0D-3E4E-A115-CBBFF795CCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC5BE72-2637-A249-8DFB-F526703E4F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -122,29 +122,16 @@
     <t>../../../../cn.etetet.wow/Luban/Config/Datas/Unit.xlsx</t>
   </si>
   <si>
-    <t>NumericType</t>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/NumericType.xlsx</t>
-  </si>
-  <si>
     <t>MapUnit</t>
   </si>
   <si>
     <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapUnit.xlsx</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.quest/Luban/Config/Datas/Text.xlsx,../../../../cn.etetet.wow/Luban/Config/Datas/Text.xlsx,../../../../cn.etetet.spell/Luban/Config/Datas/Text.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -194,21 +181,21 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -504,7 +491,7 @@
     <col min="12" max="12" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1">
+    <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -571,7 +558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1">
+    <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -594,153 +581,106 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="0" t="str">
+      <c r="C4" t="str">
         <f>_xlfn.CONCAT("ET.",B4,"ConfigCategory")</f>
         <v>ET.UnitConfigCategory</v>
       </c>
-      <c r="D4" s="0" t="str">
-        <f ref="D4:D6" t="shared" si="0">_xlfn.CONCAT(B4,"Config")</f>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D5" si="0">_xlfn.CONCAT(B4,"Config")</f>
         <v>UnitConfig</v>
       </c>
-      <c r="E4" s="0" t="b">
+      <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="0" t="str">
-        <f ref="L4:L6" t="shared" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L5" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
         <v>UnitConfigCategory</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12">
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="0" t="str">
-        <f ref="C5:C6" t="shared" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
-        <v>ET.NumericTypeConfigCategory</v>
-      </c>
-      <c r="D5" s="0" t="str">
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
+        <v>ET.MapUnitConfigCategory</v>
+      </c>
+      <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>NumericTypeConfig</v>
-      </c>
-      <c r="E5" s="0" t="b">
+        <v>MapUnitConfig</v>
+      </c>
+      <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="0" t="str">
-        <f t="shared" si="1"/>
-        <v>NumericTypeConfigCategory</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="0" t="str">
-        <f t="shared" si="2"/>
-        <v>ET.MapUnitConfigCategory</v>
-      </c>
-      <c r="D6" s="0" t="str">
-        <f t="shared" si="0"/>
-        <v>MapUnitConfig</v>
-      </c>
-      <c r="E6" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="0" t="str">
+      <c r="L5" t="str">
         <f t="shared" si="1"/>
         <v>MapUnitConfigCategory</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="0" t="str">
-        <f>_xlfn.CONCAT("ET.",B7,"ConfigCategory")</f>
-        <v>ET.TextConfigCategory</v>
-      </c>
-      <c r="D7" s="0" t="str">
-        <f>_xlfn.CONCAT(B7,"Config")</f>
-        <v>TextConfig</v>
-      </c>
-      <c r="E7" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="0" t="str">
-        <f>_xlfn.CONCAT(B7,"ConfigCategory")</f>
-        <v>TextConfigCategory</v>
-      </c>
-    </row>
-    <row r="8">
+    <row r="6" spans="1:12">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12">
       <c r="B9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12">
       <c r="B10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12">
       <c r="B11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12">
       <c r="B12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12">
       <c r="B13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12">
       <c r="B14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12">
       <c r="B15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12">
       <c r="B16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="2:2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:2">
       <c r="B18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:2">
       <c r="B19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:2">
       <c r="B20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="2:2">
       <c r="B21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="2:2">
       <c r="B22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC5BE72-2637-A249-8DFB-F526703E4F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4615EC-EECE-BB40-B4FD-CC447FBEB323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -114,18 +114,6 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/Unit.xlsx</t>
-  </si>
-  <si>
-    <t>MapUnit</t>
-  </si>
-  <si>
-    <t>../../../../cn.etetet.wow/Luban/Config/Datas/MapUnit.xlsx</t>
   </si>
 </sst>
 </file>
@@ -474,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -582,50 +570,10 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="str">
-        <f>_xlfn.CONCAT("ET.",B4,"ConfigCategory")</f>
-        <v>ET.UnitConfigCategory</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D5" si="0">_xlfn.CONCAT(B4,"Config")</f>
-        <v>UnitConfig</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4:L5" si="1">_xlfn.CONCAT(B4,"ConfigCategory")</f>
-        <v>UnitConfigCategory</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="2">_xlfn.CONCAT("ET.",B5,"ConfigCategory")</f>
-        <v>ET.MapUnitConfigCategory</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>MapUnitConfig</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
-        <v>MapUnitConfigCategory</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="2"/>
@@ -671,12 +619,6 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
